--- a/biology/Zoologie/Grimpeur_de_Molokai/Grimpeur_de_Molokai.xlsx
+++ b/biology/Zoologie/Grimpeur_de_Molokai/Grimpeur_de_Molokai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paroreomyza flammea
 Le Grimpeur de Molokai (Paroreomyza flammea) est une espèce de la famille des Fringillidae.
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Paroreomyza flammea (S.B.Wilson, 1890)[1]. L'espèce était endémique de Molokai. L'espèce a été initialement classée dans le genre Loxops sous le protonyme Loxops flammea S.B.Wilson, 1890[1].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Grimpeur de Molokai[1].
-Paroreomyza flammea a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Paroreomyza flammea (S.B.Wilson, 1890). L'espèce était endémique de Molokai. L'espèce a été initialement classée dans le genre Loxops sous le protonyme Loxops flammea S.B.Wilson, 1890.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Grimpeur de Molokai.
+Paroreomyza flammea a pour synonymes :
 Loxops flammea S.B.Wilson, 1890
 Oreomystis flammea (S.B.Wilson, 1890)</t>
         </is>
@@ -546,7 +560,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’alauahio de Molokai était inféodé aux forêts denses d’ohias. Pratt (2005) a illustré le mâle, la femelle et le juvénile à proximité d’une fougère épiphyte et endémique, Adenophorus tamariscinus, polypodiacée.
 Alimentation
